--- a/data science.xlsx
+++ b/data science.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aditya\Downloads-D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aditya\Downloads-D\Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD2EBA-D068-466C-9293-466DA050FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362C211-128C-4B30-B516-38A258A8B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{069A844D-913F-4D34-8028-C0CA24D2AD78}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="378">
   <si>
     <t>000. 27th May ML Project Discussion - coursedl.org.mp4,</t>
   </si>
@@ -997,13 +997,181 @@
   </si>
   <si>
     <t>000. When to use T test vs Z test_ - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. AI vs ML vs DL vs DS - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001_Supervised_Unsupervised_&amp;_Reinforcement_Learning_coursedl_org.mp4</t>
+  </si>
+  <si>
+    <t>002. Train Test &amp; Validation - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000_Variance_Bias_Overfitting_&amp;_Underfitting_coursedl_org.mp4</t>
+  </si>
+  <si>
+    <t>000. Handling Missing Values - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Handling Imbalanced Dataset - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Feature Scaling Normalization - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Feature Extraction - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Geometric Intuition Behind PCA - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Data Encoding - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Nominal or One Hot Encoding - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Label &amp; Ordinal Encoder - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Target Guided Ordinal Encoding - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Feature Selection Update - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>003. EDAFE And Model Training - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. EDA Flight Price - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. EDA With Red Wine Data - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. EDA Google Playstore - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. EDA Student Performance Indicator - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. EDA with Algerian Forest Fire - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Simple Linear Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Multiple Linear Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. R squared Adjusted R squared - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. MSEMAE &amp; RMSE - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Ridge Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Lasso Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Elastic Net Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Logistic Regression Indepth Intuition - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Logistic Regression with Regularization - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>002_Model_Training_for_Ridge_Lasso_&amp;_Elastic_Net_coursedl_org.mp4</t>
+  </si>
+  <si>
+    <t>002_Performance_Metrics_Confusion_Matrix_Accuracy_Precision_&amp;.mp4</t>
+  </si>
+  <si>
+    <t>000. Decision Tree Classifier Intuition - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Decision Tree For Numerical Split - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Naive Bayes Indepth Intuition - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Variants Of Naive Bayes Algorithms - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Ensemble Techniques And Bagging - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Random Forest Classifier And Regressor - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Boosting Technique - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Boosting Technique - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. 27th May ML Project Discussion - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Anomaly Detection Isolation Fores - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Curse Of Dimensionality - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. End to End ML Project - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. introduction of time series - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. K Means Indepth Intuition - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. KNN Classification And Regression - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. ML Project (Cement Strength Prediction) - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Project And Git Repository Set Up - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Project 'Wafer Fault Discussion' - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000. Regression using ANN - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>000_Project_'Wafer_Fault_Detection_Implementation'_coursedl_org.mp4</t>
+  </si>
+  <si>
+    <t>000_Support_Vector_Classifier_Indepth_Intuition_coursedl_org.mp4</t>
+  </si>
+  <si>
+    <t>001. components of time series - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. DBSCAN Anomaly Detection - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>001. Variants Of KNN. - coursedl.org.mp4</t>
+  </si>
+  <si>
+    <t>Click here - git repo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1233,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1117,10 +1293,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1157,8 +1334,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1509,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BD940-2E8C-4C94-85B2-D9106DD0DD3C}">
   <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4232,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89948CEB-5CE4-4860-AAD1-C06218E5B9CE}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4243,9 +4422,10 @@
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>298</v>
       </c>
@@ -4256,117 +4436,120 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4377,7 +4560,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -4388,18 +4571,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4410,7 +4593,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4426,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>307</v>
@@ -4448,7 +4631,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>307</v>
@@ -4459,7 +4642,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>307</v>
@@ -4470,7 +4653,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>307</v>
@@ -4481,7 +4664,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>119</v>
+        <v>334</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>307</v>
@@ -4492,7 +4675,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>307</v>
@@ -4503,7 +4686,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>307</v>
@@ -4514,7 +4697,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>307</v>
@@ -4525,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>307</v>
@@ -4536,7 +4719,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>307</v>
@@ -4547,7 +4730,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>307</v>
@@ -4558,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>307</v>
@@ -4580,7 +4763,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>307</v>
@@ -4613,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>111</v>
+        <v>343</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>307</v>
@@ -4635,7 +4818,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>307</v>
@@ -4646,7 +4829,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>307</v>
@@ -4657,7 +4840,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>307</v>
@@ -4668,7 +4851,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>307</v>
@@ -4679,7 +4862,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>307</v>
@@ -4690,7 +4873,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>307</v>
@@ -4701,7 +4884,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>307</v>
@@ -4734,7 +4917,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>307</v>
@@ -4756,7 +4939,7 @@
         <v>69</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>307</v>
@@ -4767,7 +4950,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>307</v>
@@ -4778,7 +4961,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>307</v>
@@ -4855,7 +5038,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>307</v>
@@ -4877,7 +5060,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>307</v>
@@ -4888,7 +5071,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>307</v>
@@ -4899,7 +5082,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>307</v>
@@ -4921,7 +5104,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>307</v>
@@ -4932,7 +5115,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>307</v>
@@ -4987,7 +5170,7 @@
         <v>1000</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>307</v>
@@ -4998,7 +5181,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>307</v>
@@ -5009,7 +5192,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>307</v>
@@ -5020,7 +5203,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>307</v>
@@ -5031,7 +5214,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>307</v>
@@ -5042,7 +5225,7 @@
         <v>26</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>307</v>
@@ -5053,7 +5236,7 @@
         <v>27</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>307</v>
@@ -5064,7 +5247,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>307</v>
@@ -5075,7 +5258,7 @@
         <v>33</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>61</v>
+        <v>369</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>307</v>
@@ -5086,7 +5269,7 @@
         <v>34</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>62</v>
+        <v>370</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>307</v>
@@ -5097,7 +5280,7 @@
         <v>36</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>307</v>
@@ -5108,7 +5291,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>307</v>
@@ -5119,7 +5302,7 @@
         <v>40</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>307</v>
@@ -5130,7 +5313,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>307</v>
@@ -5141,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>307</v>
@@ -5152,7 +5335,7 @@
         <v>56</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>307</v>
@@ -5300,6 +5483,9 @@
       <formula>$C2="pending"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{EA2E25D9-5C2B-45F8-9E37-40F1378BFC62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data science.xlsx
+++ b/data science.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aditya\Downloads-D\Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362C211-128C-4B30-B516-38A258A8B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E99B35-118D-4389-B79A-981735B8267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{069A844D-913F-4D34-8028-C0CA24D2AD78}"/>
   </bookViews>
@@ -4414,7 +4414,7 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4513,7 +4513,7 @@
         <v>173</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
